--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>مسیر</t>
   </si>
@@ -23,16 +23,16 @@
     <t>قابلیت عبور فضای آزاد</t>
   </si>
   <si>
-    <t>مساحت بیرون از حد مجاز</t>
+    <t>بیرون زدگی از فضای آزاد</t>
   </si>
   <si>
     <t>قابلیت عبور از حد مجاز</t>
   </si>
   <si>
-    <t>مساحت بیرون از فضای آزاد</t>
-  </si>
-  <si>
-    <t>تهران - سیاه چشمه</t>
+    <t>بیرون زدگی از حد مجاز</t>
+  </si>
+  <si>
+    <t>رازی - پل دختر</t>
   </si>
   <si>
     <t>گاباری 4.9</t>
@@ -41,13 +41,19 @@
     <t>غیر قابل عبور</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>سیاه چشمه - رشت</t>
+    <t>قابل عبور</t>
+  </si>
+  <si>
+    <t>پل دختر - خرم پی</t>
   </si>
   <si>
     <t>گاباری 5.4</t>
+  </si>
+  <si>
+    <t>خرم پی - سیاه چشمه</t>
+  </si>
+  <si>
+    <t>سیاه چشمه - انشعاب بندرعباس</t>
   </si>
 </sst>
 </file>
@@ -55,13 +61,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
     </font>
     <font>
       <name val="B Zar"/>
@@ -130,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +155,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -147,7 +169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="true"/>
   </sheetViews>
@@ -183,14 +205,14 @@
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>9</v>
+      <c r="D2" t="n" s="2">
+        <v>32.5</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="n" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,14 +225,54 @@
       <c r="C3" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="3">
-        <v>9</v>
+      <c r="D3" t="n" s="3">
+        <v>32.5</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="3">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="n" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
